--- a/pred_ohlcv/54_21/2019-10-18 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 XMR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>461.8077737653171</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>576.1940737653172</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>501.7756737653172</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>584.2421737653171</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>584.2421737653171</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>579.0716737653172</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>527.7002737653172</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>549.4534737653172</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>603.7708737653172</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>574.8282737653172</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>621.7249737653173</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>600.8464737653172</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>598.7157737653172</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>604.5274737653172</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>604.5274737653172</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>617.5274737653172</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>624.3203737653172</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>571.7883737653171</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>583.0617737653172</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>547.4501737653172</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>547.4501737653172</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>547.4501737653172</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>547.4501737653172</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>547.2102737653172</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>557.2102737653172</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>557.2102737653172</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>569.2102737653172</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>532.2102737653172</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>574.2102737653172</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>580.3602737653172</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>580.3602737653172</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>580.9002737653171</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>554.1508737653171</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>566.1508737653171</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>573.3298737653171</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>573.3298737653171</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>573.3298737653171</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>601.3298737653171</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>601.3298737653171</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>601.3298737653171</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>617.657473765317</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>638.657473765317</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>665.667473765317</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1191.23565075577</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1191.23565075577</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1253.22525075577</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1270.32405075577</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1287.42425075577</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1256.75785075577</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1247.38675075577</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1216.52875075577</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1246.97655075577</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1244.24415075577</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1222.84985075577</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1228.58935075577</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1218.96605075577</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1218.34205075577</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1218.35205075577</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1215.20645075577</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1228.57755075577</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1227.06285075577</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1246.245344523475</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1254.011444523475</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1262.011444523475</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1133.690944523475</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1134.219044523475</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1114.219044523475</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1104.013344523475</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1191.299444523474</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1213.008044523474</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1200.683044523474</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1292.058544523474</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1299.118544523474</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1305.875244523474</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1311.875244523474</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1322.946344523474</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1321.946344523474</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1321.946344523474</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1356.374904022429</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1356.631104022429</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1356.631104022429</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1344.870104022429</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1471.814804022429</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1468.595504022429</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1452.97640402243</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1452.652404022429</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1453.145404022429</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1451.804704022429</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1451.804704022429</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1451.824704022429</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1450.091404022429</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1450.111404022429</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1450.111404022429</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1424.889004022429</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1424.889004022429</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1431.975804022429</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1396.282104022429</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1396.282104022429</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1396.282104022429</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1386.835504022429</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1386.848504022429</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1386.042604022429</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1384.731904022429</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1350.439304022429</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1350.439304022429</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1358.253504022429</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1351.621604022429</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1351.671611089566</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>1318.709211089566</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1319.213911089566</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>1369.213911089566</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1367.119911089566</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1367.139911089566</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1355.068911089566</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1338.697711089566</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>1338.697711089566</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>1338.697711089566</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>1338.697711089566</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>1338.697711089566</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>1338.030711089566</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1336.024011089566</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1335.704011089566</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1424.527691454222</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1424.527691454222</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1424.527691454222</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1424.527691454222</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1428.002091454222</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1440.432191454222</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1477.670291454222</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1474.255691454222</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1474.255691454222</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1473.955691454222</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1473.151391454222</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1472.271891454222</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1467.569891454222</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1490.951891454222</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1493.387291454222</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1489.799491454222</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1470.319891454222</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1299.840491454223</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1285.296491454222</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1288.680891454222</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1280.553491454222</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1286.607291454222</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1286.607291454222</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1275.536191454222</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1286.607291454222</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1280.078491454222</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1280.078491454222</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1283.757491454222</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1282.272091454222</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>1467.018925999579</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>1445.000925999579</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>1445.000925999579</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>1443.449125999579</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>1443.449125999579</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1443.449125999579</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>1443.449125999579</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>1440.253625999579</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>1431.083325999579</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>1431.928725999579</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1431.928725999579</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1446.566525999579</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1448.318325999579</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>1448.318325999579</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1449.120825999579</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1449.120825999579</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>1448.877325999578</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>1448.877325999578</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>1448.877425999578</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>1449.557425999579</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>8175.083493382879</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>8174.404593382879</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>8176.693193382879</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>8175.61919338288</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>8175.525093382879</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>8175.558282329855</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>8174.531882329855</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>8148.702682329855</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>8148.702682329855</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>8148.702682329855</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-18 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 XMR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>461.8077737653171</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>576.1940737653172</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>501.7756737653172</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>584.2421737653171</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>584.2421737653171</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>579.0716737653172</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>527.7002737653172</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>549.4534737653172</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>603.7708737653172</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>574.8282737653172</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>621.7249737653173</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>600.8464737653172</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>598.7157737653172</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>604.5274737653172</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>604.5274737653172</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>617.5274737653172</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>624.3203737653172</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>571.7883737653171</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>583.0617737653172</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>547.4501737653172</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>547.4501737653172</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>547.4501737653172</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>547.4501737653172</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>547.2102737653172</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>557.2102737653172</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>557.2102737653172</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>569.2102737653172</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>532.2102737653172</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>574.2102737653172</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>580.3602737653172</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>580.3602737653172</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>580.9002737653171</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>554.1508737653171</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>566.1508737653171</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>573.3298737653171</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>573.3298737653171</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>573.3298737653171</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>601.3298737653171</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>601.3298737653171</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>601.3298737653171</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>617.657473765317</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>638.657473765317</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>665.667473765317</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>747.6315409420168</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>729.9454409420168</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>729.9454409420168</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>734.7488472457409</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>734.7488472457409</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>759.1525919448809</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>756.1815919448809</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>785.9728919448809</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>745.9728919448809</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>745.9728919448809</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>745.9728919448809</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>805.8101257557698</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>812.9691012891979</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>848.0593257557698</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>849.9787257557698</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>850.9796257557698</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>850.9796257557698</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>850.5800257557698</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>850.6115882557698</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>846.6227882557698</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>846.6543507557698</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>840.6543507557698</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>840.6543507557698</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>840.6543507557698</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>809.3594507557698</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>828.1494507557697</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>887.2654618274518</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>885.0031618274518</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>955.2728507557698</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1138.17245075577</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1138.17245075577</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1138.17245075577</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1271.09975075577</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1269.43475075577</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1207.10005075577</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1184.66285075577</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1195.66285075577</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1184.22565075577</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1183.22565075577</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1183.23565075577</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1183.23565075577</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1191.23565075577</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1191.23565075577</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1253.22525075577</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1270.32405075577</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1287.42425075577</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1256.75785075577</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1247.38675075577</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1216.52875075577</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1246.97655075577</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1244.24415075577</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1222.84985075577</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1228.58935075577</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1218.96605075577</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1218.34205075577</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1218.35205075577</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1215.20645075577</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1207.66005075577</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1213.15395075577</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1209.82995075577</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1210.30715075577</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1210.30715075577</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1230.92715075577</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1232.92715075577</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1228.57755075577</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1227.06285075577</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1254.12245075577</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1251.55545075577</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1241.55545075577</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1247.915344523475</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1246.915344523475</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1246.915344523475</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1246.245344523475</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1249.011444523475</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1254.011444523475</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1254.011444523475</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1254.011444523475</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1254.011444523475</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1259.011444523475</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1262.011444523475</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1262.011444523475</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1133.690944523475</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1150.750944523475</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1134.219044523475</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1134.219044523475</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1114.219044523475</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1104.013344523475</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1167.650444523475</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1213.008044523474</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1200.683044523474</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1292.058544523474</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1299.118544523474</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1305.875244523474</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1311.875244523474</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1322.946344523474</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1321.946344523474</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1321.946344523474</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1356.374904022429</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1356.631104022429</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1356.631104022429</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1344.870104022429</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1471.814804022429</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1468.595504022429</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1452.97640402243</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1452.652404022429</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1453.145404022429</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1451.804704022429</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1451.804704022429</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1451.824704022429</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1450.091404022429</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1450.111404022429</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1450.111404022429</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1424.889004022429</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1424.889004022429</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1431.975804022429</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1396.282104022429</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1396.282104022429</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1396.282104022429</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1386.835504022429</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1386.848504022429</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1386.042604022429</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1384.731904022429</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1350.439304022429</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1350.439304022429</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1358.253504022429</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1351.621604022429</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1351.671611089566</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>1318.709211089566</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1319.213911089566</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>1369.213911089566</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1367.119911089566</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1367.139911089566</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1355.068911089566</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1338.697711089566</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1382.857611089566</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1376.117811089566</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>1373.117811089566</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1384.037811089566</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1416.498111089566</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1430.194691454222</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1424.527691454222</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1424.527691454222</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1424.527691454222</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1424.527691454222</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1428.002091454222</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1440.432191454222</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1477.670291454222</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1474.255691454222</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1474.255691454222</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1473.955691454222</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1473.151391454222</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1472.602691454222</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1473.042091454222</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1472.239891454222</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1473.771891454222</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1472.271891454222</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1467.569891454222</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1467.569891454222</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1494.149191454222</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1490.951891454222</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1493.387291454222</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1489.799491454222</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1470.319891454222</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1469.639891454222</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1466.210791454222</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1465.150791454222</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1299.840491454223</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1285.296491454222</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1288.680891454222</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1280.553491454222</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1286.607291454222</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1286.607291454222</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1275.536191454222</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1286.607291454222</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1280.078491454222</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1280.078491454222</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1283.757491454222</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1282.272091454222</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>1443.449125999579</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1443.449125999579</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>1443.449125999579</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>1440.253625999579</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>1431.083325999579</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>1431.928725999579</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1431.928725999579</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1446.566525999579</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1448.318325999579</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>1448.318325999579</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1449.120825999579</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1449.120825999579</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>1448.877325999578</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>1448.877325999578</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>1448.877425999578</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>8174.404593382879</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>8176.693193382879</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>8175.61919338288</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>8175.525093382879</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>8175.558282329855</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>8174.531882329855</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>8148.702682329855</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>8148.702682329855</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>8148.702682329855</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
